--- a/システム開発演習/020-内部_プログラミング設計/022-クラス仕様書/JSP仕様書(商品検索画面).xlsx
+++ b/システム開発演習/020-内部_プログラミング設計/022-クラス仕様書/JSP仕様書(商品検索画面).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5737E1E-422F-45A0-BA92-9F6FF0BB5E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2D2F9D-A8C5-4D60-9D0D-466B7C1F5771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,19 +543,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -563,50 +551,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -621,6 +576,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -653,11 +611,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1008,7 +1008,7 @@
   <dimension ref="A1:HY32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4:BC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="14.4"/>
@@ -1017,79 +1017,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:233" ht="15" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="44" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="46" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="44" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="46" t="s">
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="49" t="s">
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="34" t="s">
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="35" t="s">
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="33">
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="18">
         <v>45000</v>
       </c>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="33"/>
-      <c r="BA1" s="33"/>
-      <c r="BB1" s="33"/>
-      <c r="BC1" s="33"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
       <c r="BD1" s="1"/>
       <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
@@ -1224,71 +1224,71 @@
       <c r="GE1" s="1"/>
     </row>
     <row r="2" spans="1:233" ht="15" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="44" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="35" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="47" t="s">
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="35" t="s">
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="33">
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="18">
         <v>45554</v>
       </c>
-      <c r="AY2" s="33"/>
-      <c r="AZ2" s="33"/>
-      <c r="BA2" s="33"/>
-      <c r="BB2" s="33"/>
-      <c r="BC2" s="33"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
@@ -1612,65 +1612,65 @@
       <c r="GE3" s="1"/>
     </row>
     <row r="4" spans="1:233" ht="15" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="38" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39"/>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="40"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="25"/>
+      <c r="AR4" s="25"/>
+      <c r="AS4" s="25"/>
+      <c r="AT4" s="25"/>
+      <c r="AU4" s="25"/>
+      <c r="AV4" s="25"/>
+      <c r="AW4" s="25"/>
+      <c r="AX4" s="25"/>
+      <c r="AY4" s="25"/>
+      <c r="AZ4" s="25"/>
+      <c r="BA4" s="25"/>
+      <c r="BB4" s="25"/>
+      <c r="BC4" s="26"/>
       <c r="BD4" s="8"/>
       <c r="BE4" s="8"/>
       <c r="BF4" s="8"/>
@@ -1851,61 +1851,61 @@
       <c r="HY4" s="8"/>
     </row>
     <row r="5" spans="1:233" ht="15" customHeight="1">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="42"/>
-      <c r="AK5" s="42"/>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="42"/>
-      <c r="AR5" s="42"/>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
-      <c r="AX5" s="42"/>
-      <c r="AY5" s="42"/>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="42"/>
-      <c r="BC5" s="43"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28"/>
+      <c r="AL5" s="28"/>
+      <c r="AM5" s="28"/>
+      <c r="AN5" s="28"/>
+      <c r="AO5" s="28"/>
+      <c r="AP5" s="28"/>
+      <c r="AQ5" s="28"/>
+      <c r="AR5" s="28"/>
+      <c r="AS5" s="28"/>
+      <c r="AT5" s="28"/>
+      <c r="AU5" s="28"/>
+      <c r="AV5" s="28"/>
+      <c r="AW5" s="28"/>
+      <c r="AX5" s="28"/>
+      <c r="AY5" s="28"/>
+      <c r="AZ5" s="28"/>
+      <c r="BA5" s="28"/>
+      <c r="BB5" s="28"/>
+      <c r="BC5" s="29"/>
       <c r="BD5" s="8"/>
       <c r="BE5" s="8"/>
       <c r="BF5" s="8"/>
@@ -2275,71 +2275,71 @@
       <c r="GE6" s="6"/>
     </row>
     <row r="7" spans="1:233" ht="15" customHeight="1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32" t="s">
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32" t="s">
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32" t="s">
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="32"/>
-      <c r="BA7" s="32"/>
-      <c r="BB7" s="32"/>
-      <c r="BC7" s="32"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="23"/>
+      <c r="AJ7" s="23"/>
+      <c r="AK7" s="23"/>
+      <c r="AL7" s="23"/>
+      <c r="AM7" s="23"/>
+      <c r="AN7" s="23"/>
+      <c r="AO7" s="23"/>
+      <c r="AP7" s="23"/>
+      <c r="AQ7" s="23"/>
+      <c r="AR7" s="23"/>
+      <c r="AS7" s="23"/>
+      <c r="AT7" s="23"/>
+      <c r="AU7" s="23"/>
+      <c r="AV7" s="23"/>
+      <c r="AW7" s="23"/>
+      <c r="AX7" s="23"/>
+      <c r="AY7" s="23"/>
+      <c r="AZ7" s="23"/>
+      <c r="BA7" s="23"/>
+      <c r="BB7" s="23"/>
+      <c r="BC7" s="23"/>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
@@ -2474,61 +2474,61 @@
       <c r="GE7" s="1"/>
     </row>
     <row r="8" spans="1:233" ht="15" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32"/>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="32"/>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="32"/>
-      <c r="AJ8" s="32"/>
-      <c r="AK8" s="32"/>
-      <c r="AL8" s="32"/>
-      <c r="AM8" s="32"/>
-      <c r="AN8" s="32"/>
-      <c r="AO8" s="32"/>
-      <c r="AP8" s="32"/>
-      <c r="AQ8" s="32"/>
-      <c r="AR8" s="32"/>
-      <c r="AS8" s="32"/>
-      <c r="AT8" s="32"/>
-      <c r="AU8" s="32"/>
-      <c r="AV8" s="32"/>
-      <c r="AW8" s="32"/>
-      <c r="AX8" s="32"/>
-      <c r="AY8" s="32"/>
-      <c r="AZ8" s="32"/>
-      <c r="BA8" s="32"/>
-      <c r="BB8" s="32"/>
-      <c r="BC8" s="32"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="23"/>
+      <c r="AK8" s="23"/>
+      <c r="AL8" s="23"/>
+      <c r="AM8" s="23"/>
+      <c r="AN8" s="23"/>
+      <c r="AO8" s="23"/>
+      <c r="AP8" s="23"/>
+      <c r="AQ8" s="23"/>
+      <c r="AR8" s="23"/>
+      <c r="AS8" s="23"/>
+      <c r="AT8" s="23"/>
+      <c r="AU8" s="23"/>
+      <c r="AV8" s="23"/>
+      <c r="AW8" s="23"/>
+      <c r="AX8" s="23"/>
+      <c r="AY8" s="23"/>
+      <c r="AZ8" s="23"/>
+      <c r="BA8" s="23"/>
+      <c r="BB8" s="23"/>
+      <c r="BC8" s="23"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
@@ -2663,65 +2663,65 @@
       <c r="GE8" s="1"/>
     </row>
     <row r="9" spans="1:233" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="11" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="14"/>
-      <c r="AP9" s="14"/>
-      <c r="AQ9" s="14"/>
-      <c r="AR9" s="14"/>
-      <c r="AS9" s="14"/>
-      <c r="AT9" s="14"/>
-      <c r="AU9" s="14"/>
-      <c r="AV9" s="14"/>
-      <c r="AW9" s="14"/>
-      <c r="AX9" s="14"/>
-      <c r="AY9" s="14"/>
-      <c r="AZ9" s="14"/>
-      <c r="BA9" s="14"/>
-      <c r="BB9" s="14"/>
-      <c r="BC9" s="14"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="17"/>
+      <c r="AP9" s="17"/>
+      <c r="AQ9" s="17"/>
+      <c r="AR9" s="17"/>
+      <c r="AS9" s="17"/>
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="17"/>
+      <c r="AW9" s="17"/>
+      <c r="AX9" s="17"/>
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="17"/>
+      <c r="BA9" s="17"/>
+      <c r="BB9" s="17"/>
+      <c r="BC9" s="17"/>
       <c r="BD9" s="9"/>
       <c r="BE9" s="9"/>
       <c r="BF9" s="9"/>
@@ -2856,65 +2856,65 @@
       <c r="GE9" s="9"/>
     </row>
     <row r="10" spans="1:233" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="11" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
-      <c r="AM10" s="14"/>
-      <c r="AN10" s="14"/>
-      <c r="AO10" s="14"/>
-      <c r="AP10" s="14"/>
-      <c r="AQ10" s="14"/>
-      <c r="AR10" s="14"/>
-      <c r="AS10" s="14"/>
-      <c r="AT10" s="14"/>
-      <c r="AU10" s="14"/>
-      <c r="AV10" s="14"/>
-      <c r="AW10" s="14"/>
-      <c r="AX10" s="14"/>
-      <c r="AY10" s="14"/>
-      <c r="AZ10" s="14"/>
-      <c r="BA10" s="14"/>
-      <c r="BB10" s="14"/>
-      <c r="BC10" s="14"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="17"/>
+      <c r="AO10" s="17"/>
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="17"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="17"/>
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="17"/>
+      <c r="AV10" s="17"/>
+      <c r="AW10" s="17"/>
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="17"/>
+      <c r="AZ10" s="17"/>
+      <c r="BA10" s="17"/>
+      <c r="BB10" s="17"/>
+      <c r="BC10" s="17"/>
       <c r="BD10" s="9"/>
       <c r="BE10" s="9"/>
       <c r="BF10" s="9"/>
@@ -3049,65 +3049,65 @@
       <c r="GE10" s="9"/>
     </row>
     <row r="11" spans="1:233" ht="15" customHeight="1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="22" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="14"/>
-      <c r="AL11" s="14"/>
-      <c r="AM11" s="14"/>
-      <c r="AN11" s="14"/>
-      <c r="AO11" s="14"/>
-      <c r="AP11" s="14"/>
-      <c r="AQ11" s="14"/>
-      <c r="AR11" s="14"/>
-      <c r="AS11" s="14"/>
-      <c r="AT11" s="14"/>
-      <c r="AU11" s="14"/>
-      <c r="AV11" s="14"/>
-      <c r="AW11" s="14"/>
-      <c r="AX11" s="14"/>
-      <c r="AY11" s="14"/>
-      <c r="AZ11" s="14"/>
-      <c r="BA11" s="14"/>
-      <c r="BB11" s="14"/>
-      <c r="BC11" s="14"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="17"/>
+      <c r="AM11" s="17"/>
+      <c r="AN11" s="17"/>
+      <c r="AO11" s="17"/>
+      <c r="AP11" s="17"/>
+      <c r="AQ11" s="17"/>
+      <c r="AR11" s="17"/>
+      <c r="AS11" s="17"/>
+      <c r="AT11" s="17"/>
+      <c r="AU11" s="17"/>
+      <c r="AV11" s="17"/>
+      <c r="AW11" s="17"/>
+      <c r="AX11" s="17"/>
+      <c r="AY11" s="17"/>
+      <c r="AZ11" s="17"/>
+      <c r="BA11" s="17"/>
+      <c r="BB11" s="17"/>
+      <c r="BC11" s="17"/>
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
@@ -3242,65 +3242,65 @@
       <c r="GE11" s="1"/>
     </row>
     <row r="12" spans="1:233" ht="15" customHeight="1">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="14"/>
-      <c r="AM12" s="14"/>
-      <c r="AN12" s="14"/>
-      <c r="AO12" s="14"/>
-      <c r="AP12" s="14"/>
-      <c r="AQ12" s="14"/>
-      <c r="AR12" s="14"/>
-      <c r="AS12" s="14"/>
-      <c r="AT12" s="14"/>
-      <c r="AU12" s="14"/>
-      <c r="AV12" s="14"/>
-      <c r="AW12" s="14"/>
-      <c r="AX12" s="14"/>
-      <c r="AY12" s="14"/>
-      <c r="AZ12" s="14"/>
-      <c r="BA12" s="14"/>
-      <c r="BB12" s="14"/>
-      <c r="BC12" s="14"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="17"/>
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="17"/>
+      <c r="AO12" s="17"/>
+      <c r="AP12" s="17"/>
+      <c r="AQ12" s="17"/>
+      <c r="AR12" s="17"/>
+      <c r="AS12" s="17"/>
+      <c r="AT12" s="17"/>
+      <c r="AU12" s="17"/>
+      <c r="AV12" s="17"/>
+      <c r="AW12" s="17"/>
+      <c r="AX12" s="17"/>
+      <c r="AY12" s="17"/>
+      <c r="AZ12" s="17"/>
+      <c r="BA12" s="17"/>
+      <c r="BB12" s="17"/>
+      <c r="BC12" s="17"/>
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
@@ -3435,67 +3435,67 @@
       <c r="GE12" s="1"/>
     </row>
     <row r="13" spans="1:233" ht="15" customHeight="1">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="14" t="s">
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="14"/>
-      <c r="AL13" s="14"/>
-      <c r="AM13" s="14"/>
-      <c r="AN13" s="14"/>
-      <c r="AO13" s="14"/>
-      <c r="AP13" s="14"/>
-      <c r="AQ13" s="14"/>
-      <c r="AR13" s="14"/>
-      <c r="AS13" s="14"/>
-      <c r="AT13" s="14"/>
-      <c r="AU13" s="14"/>
-      <c r="AV13" s="14"/>
-      <c r="AW13" s="14"/>
-      <c r="AX13" s="14"/>
-      <c r="AY13" s="14"/>
-      <c r="AZ13" s="14"/>
-      <c r="BA13" s="14"/>
-      <c r="BB13" s="14"/>
-      <c r="BC13" s="14"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="17"/>
+      <c r="AO13" s="17"/>
+      <c r="AP13" s="17"/>
+      <c r="AQ13" s="17"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="17"/>
+      <c r="AT13" s="17"/>
+      <c r="AU13" s="17"/>
+      <c r="AV13" s="17"/>
+      <c r="AW13" s="17"/>
+      <c r="AX13" s="17"/>
+      <c r="AY13" s="17"/>
+      <c r="AZ13" s="17"/>
+      <c r="BA13" s="17"/>
+      <c r="BB13" s="17"/>
+      <c r="BC13" s="17"/>
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
       <c r="BF13" s="1"/>
@@ -3630,67 +3630,67 @@
       <c r="GE13" s="1"/>
     </row>
     <row r="14" spans="1:233" ht="15" customHeight="1">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="14" t="s">
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="14"/>
-      <c r="AI14" s="14"/>
-      <c r="AJ14" s="14"/>
-      <c r="AK14" s="14"/>
-      <c r="AL14" s="14"/>
-      <c r="AM14" s="14"/>
-      <c r="AN14" s="14"/>
-      <c r="AO14" s="14"/>
-      <c r="AP14" s="14"/>
-      <c r="AQ14" s="14"/>
-      <c r="AR14" s="14"/>
-      <c r="AS14" s="14"/>
-      <c r="AT14" s="14"/>
-      <c r="AU14" s="14"/>
-      <c r="AV14" s="14"/>
-      <c r="AW14" s="14"/>
-      <c r="AX14" s="14"/>
-      <c r="AY14" s="14"/>
-      <c r="AZ14" s="14"/>
-      <c r="BA14" s="14"/>
-      <c r="BB14" s="14"/>
-      <c r="BC14" s="14"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="17"/>
+      <c r="AO14" s="17"/>
+      <c r="AP14" s="17"/>
+      <c r="AQ14" s="17"/>
+      <c r="AR14" s="17"/>
+      <c r="AS14" s="17"/>
+      <c r="AT14" s="17"/>
+      <c r="AU14" s="17"/>
+      <c r="AV14" s="17"/>
+      <c r="AW14" s="17"/>
+      <c r="AX14" s="17"/>
+      <c r="AY14" s="17"/>
+      <c r="AZ14" s="17"/>
+      <c r="BA14" s="17"/>
+      <c r="BB14" s="17"/>
+      <c r="BC14" s="17"/>
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
       <c r="BF14" s="1"/>
@@ -3825,61 +3825,61 @@
       <c r="GE14" s="1"/>
     </row>
     <row r="15" spans="1:233" ht="15" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="14"/>
-      <c r="AM15" s="14"/>
-      <c r="AN15" s="14"/>
-      <c r="AO15" s="14"/>
-      <c r="AP15" s="14"/>
-      <c r="AQ15" s="14"/>
-      <c r="AR15" s="14"/>
-      <c r="AS15" s="14"/>
-      <c r="AT15" s="14"/>
-      <c r="AU15" s="14"/>
-      <c r="AV15" s="14"/>
-      <c r="AW15" s="14"/>
-      <c r="AX15" s="14"/>
-      <c r="AY15" s="14"/>
-      <c r="AZ15" s="14"/>
-      <c r="BA15" s="14"/>
-      <c r="BB15" s="14"/>
-      <c r="BC15" s="14"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="17"/>
+      <c r="AO15" s="17"/>
+      <c r="AP15" s="17"/>
+      <c r="AQ15" s="17"/>
+      <c r="AR15" s="17"/>
+      <c r="AS15" s="17"/>
+      <c r="AT15" s="17"/>
+      <c r="AU15" s="17"/>
+      <c r="AV15" s="17"/>
+      <c r="AW15" s="17"/>
+      <c r="AX15" s="17"/>
+      <c r="AY15" s="17"/>
+      <c r="AZ15" s="17"/>
+      <c r="BA15" s="17"/>
+      <c r="BB15" s="17"/>
+      <c r="BC15" s="17"/>
       <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
       <c r="BF15" s="1"/>
@@ -4014,61 +4014,61 @@
       <c r="GE15" s="1"/>
     </row>
     <row r="16" spans="1:233" ht="15" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="14"/>
-      <c r="AN16" s="14"/>
-      <c r="AO16" s="14"/>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="14"/>
-      <c r="AR16" s="14"/>
-      <c r="AS16" s="14"/>
-      <c r="AT16" s="14"/>
-      <c r="AU16" s="14"/>
-      <c r="AV16" s="14"/>
-      <c r="AW16" s="14"/>
-      <c r="AX16" s="14"/>
-      <c r="AY16" s="14"/>
-      <c r="AZ16" s="14"/>
-      <c r="BA16" s="14"/>
-      <c r="BB16" s="14"/>
-      <c r="BC16" s="14"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="17"/>
+      <c r="AO16" s="17"/>
+      <c r="AP16" s="17"/>
+      <c r="AQ16" s="17"/>
+      <c r="AR16" s="17"/>
+      <c r="AS16" s="17"/>
+      <c r="AT16" s="17"/>
+      <c r="AU16" s="17"/>
+      <c r="AV16" s="17"/>
+      <c r="AW16" s="17"/>
+      <c r="AX16" s="17"/>
+      <c r="AY16" s="17"/>
+      <c r="AZ16" s="17"/>
+      <c r="BA16" s="17"/>
+      <c r="BB16" s="17"/>
+      <c r="BC16" s="17"/>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
       <c r="BF16" s="1"/>
@@ -4203,61 +4203,61 @@
       <c r="GE16" s="1"/>
     </row>
     <row r="17" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14"/>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="14"/>
-      <c r="AM17" s="14"/>
-      <c r="AN17" s="14"/>
-      <c r="AO17" s="14"/>
-      <c r="AP17" s="14"/>
-      <c r="AQ17" s="14"/>
-      <c r="AR17" s="14"/>
-      <c r="AS17" s="14"/>
-      <c r="AT17" s="14"/>
-      <c r="AU17" s="14"/>
-      <c r="AV17" s="14"/>
-      <c r="AW17" s="14"/>
-      <c r="AX17" s="14"/>
-      <c r="AY17" s="14"/>
-      <c r="AZ17" s="14"/>
-      <c r="BA17" s="14"/>
-      <c r="BB17" s="14"/>
-      <c r="BC17" s="14"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="17"/>
+      <c r="AM17" s="17"/>
+      <c r="AN17" s="17"/>
+      <c r="AO17" s="17"/>
+      <c r="AP17" s="17"/>
+      <c r="AQ17" s="17"/>
+      <c r="AR17" s="17"/>
+      <c r="AS17" s="17"/>
+      <c r="AT17" s="17"/>
+      <c r="AU17" s="17"/>
+      <c r="AV17" s="17"/>
+      <c r="AW17" s="17"/>
+      <c r="AX17" s="17"/>
+      <c r="AY17" s="17"/>
+      <c r="AZ17" s="17"/>
+      <c r="BA17" s="17"/>
+      <c r="BB17" s="17"/>
+      <c r="BC17" s="17"/>
       <c r="BD17" s="9"/>
       <c r="BE17" s="9"/>
       <c r="BF17" s="9"/>
@@ -4392,61 +4392,61 @@
       <c r="GE17" s="9"/>
     </row>
     <row r="18" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="14"/>
-      <c r="AJ18" s="14"/>
-      <c r="AK18" s="14"/>
-      <c r="AL18" s="14"/>
-      <c r="AM18" s="14"/>
-      <c r="AN18" s="14"/>
-      <c r="AO18" s="14"/>
-      <c r="AP18" s="14"/>
-      <c r="AQ18" s="14"/>
-      <c r="AR18" s="14"/>
-      <c r="AS18" s="14"/>
-      <c r="AT18" s="14"/>
-      <c r="AU18" s="14"/>
-      <c r="AV18" s="14"/>
-      <c r="AW18" s="14"/>
-      <c r="AX18" s="14"/>
-      <c r="AY18" s="14"/>
-      <c r="AZ18" s="14"/>
-      <c r="BA18" s="14"/>
-      <c r="BB18" s="14"/>
-      <c r="BC18" s="14"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="17"/>
+      <c r="AO18" s="17"/>
+      <c r="AP18" s="17"/>
+      <c r="AQ18" s="17"/>
+      <c r="AR18" s="17"/>
+      <c r="AS18" s="17"/>
+      <c r="AT18" s="17"/>
+      <c r="AU18" s="17"/>
+      <c r="AV18" s="17"/>
+      <c r="AW18" s="17"/>
+      <c r="AX18" s="17"/>
+      <c r="AY18" s="17"/>
+      <c r="AZ18" s="17"/>
+      <c r="BA18" s="17"/>
+      <c r="BB18" s="17"/>
+      <c r="BC18" s="17"/>
       <c r="BD18" s="9"/>
       <c r="BE18" s="9"/>
       <c r="BF18" s="9"/>
@@ -4581,61 +4581,61 @@
       <c r="GE18" s="9"/>
     </row>
     <row r="19" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="14"/>
-      <c r="AM19" s="14"/>
-      <c r="AN19" s="14"/>
-      <c r="AO19" s="14"/>
-      <c r="AP19" s="14"/>
-      <c r="AQ19" s="14"/>
-      <c r="AR19" s="14"/>
-      <c r="AS19" s="14"/>
-      <c r="AT19" s="14"/>
-      <c r="AU19" s="14"/>
-      <c r="AV19" s="14"/>
-      <c r="AW19" s="14"/>
-      <c r="AX19" s="14"/>
-      <c r="AY19" s="14"/>
-      <c r="AZ19" s="14"/>
-      <c r="BA19" s="14"/>
-      <c r="BB19" s="14"/>
-      <c r="BC19" s="14"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="17"/>
+      <c r="AO19" s="17"/>
+      <c r="AP19" s="17"/>
+      <c r="AQ19" s="17"/>
+      <c r="AR19" s="17"/>
+      <c r="AS19" s="17"/>
+      <c r="AT19" s="17"/>
+      <c r="AU19" s="17"/>
+      <c r="AV19" s="17"/>
+      <c r="AW19" s="17"/>
+      <c r="AX19" s="17"/>
+      <c r="AY19" s="17"/>
+      <c r="AZ19" s="17"/>
+      <c r="BA19" s="17"/>
+      <c r="BB19" s="17"/>
+      <c r="BC19" s="17"/>
       <c r="BD19" s="9"/>
       <c r="BE19" s="9"/>
       <c r="BF19" s="9"/>
@@ -4770,61 +4770,61 @@
       <c r="GE19" s="9"/>
     </row>
     <row r="20" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="14"/>
-      <c r="AM20" s="14"/>
-      <c r="AN20" s="14"/>
-      <c r="AO20" s="14"/>
-      <c r="AP20" s="14"/>
-      <c r="AQ20" s="14"/>
-      <c r="AR20" s="14"/>
-      <c r="AS20" s="14"/>
-      <c r="AT20" s="14"/>
-      <c r="AU20" s="14"/>
-      <c r="AV20" s="14"/>
-      <c r="AW20" s="14"/>
-      <c r="AX20" s="14"/>
-      <c r="AY20" s="14"/>
-      <c r="AZ20" s="14"/>
-      <c r="BA20" s="14"/>
-      <c r="BB20" s="14"/>
-      <c r="BC20" s="14"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="17"/>
+      <c r="AO20" s="17"/>
+      <c r="AP20" s="17"/>
+      <c r="AQ20" s="17"/>
+      <c r="AR20" s="17"/>
+      <c r="AS20" s="17"/>
+      <c r="AT20" s="17"/>
+      <c r="AU20" s="17"/>
+      <c r="AV20" s="17"/>
+      <c r="AW20" s="17"/>
+      <c r="AX20" s="17"/>
+      <c r="AY20" s="17"/>
+      <c r="AZ20" s="17"/>
+      <c r="BA20" s="17"/>
+      <c r="BB20" s="17"/>
+      <c r="BC20" s="17"/>
       <c r="BD20" s="9"/>
       <c r="BE20" s="9"/>
       <c r="BF20" s="9"/>
@@ -4959,61 +4959,61 @@
       <c r="GE20" s="9"/>
     </row>
     <row r="21" spans="1:187" ht="15" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="19"/>
-      <c r="AL21" s="19"/>
-      <c r="AM21" s="19"/>
-      <c r="AN21" s="19"/>
-      <c r="AO21" s="19"/>
-      <c r="AP21" s="19"/>
-      <c r="AQ21" s="19"/>
-      <c r="AR21" s="19"/>
-      <c r="AS21" s="19"/>
-      <c r="AT21" s="19"/>
-      <c r="AU21" s="19"/>
-      <c r="AV21" s="19"/>
-      <c r="AW21" s="19"/>
-      <c r="AX21" s="19"/>
-      <c r="AY21" s="19"/>
-      <c r="AZ21" s="19"/>
-      <c r="BA21" s="19"/>
-      <c r="BB21" s="19"/>
-      <c r="BC21" s="19"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="37"/>
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="37"/>
+      <c r="AK21" s="37"/>
+      <c r="AL21" s="37"/>
+      <c r="AM21" s="37"/>
+      <c r="AN21" s="37"/>
+      <c r="AO21" s="37"/>
+      <c r="AP21" s="37"/>
+      <c r="AQ21" s="37"/>
+      <c r="AR21" s="37"/>
+      <c r="AS21" s="37"/>
+      <c r="AT21" s="37"/>
+      <c r="AU21" s="37"/>
+      <c r="AV21" s="37"/>
+      <c r="AW21" s="37"/>
+      <c r="AX21" s="37"/>
+      <c r="AY21" s="37"/>
+      <c r="AZ21" s="37"/>
+      <c r="BA21" s="37"/>
+      <c r="BB21" s="37"/>
+      <c r="BC21" s="37"/>
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
@@ -5148,61 +5148,61 @@
       <c r="GE21" s="1"/>
     </row>
     <row r="22" spans="1:187" ht="15" customHeight="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="19"/>
-      <c r="AJ22" s="19"/>
-      <c r="AK22" s="19"/>
-      <c r="AL22" s="19"/>
-      <c r="AM22" s="19"/>
-      <c r="AN22" s="19"/>
-      <c r="AO22" s="19"/>
-      <c r="AP22" s="19"/>
-      <c r="AQ22" s="19"/>
-      <c r="AR22" s="19"/>
-      <c r="AS22" s="19"/>
-      <c r="AT22" s="19"/>
-      <c r="AU22" s="19"/>
-      <c r="AV22" s="19"/>
-      <c r="AW22" s="19"/>
-      <c r="AX22" s="19"/>
-      <c r="AY22" s="19"/>
-      <c r="AZ22" s="19"/>
-      <c r="BA22" s="19"/>
-      <c r="BB22" s="19"/>
-      <c r="BC22" s="19"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="37"/>
+      <c r="AG22" s="37"/>
+      <c r="AH22" s="37"/>
+      <c r="AI22" s="37"/>
+      <c r="AJ22" s="37"/>
+      <c r="AK22" s="37"/>
+      <c r="AL22" s="37"/>
+      <c r="AM22" s="37"/>
+      <c r="AN22" s="37"/>
+      <c r="AO22" s="37"/>
+      <c r="AP22" s="37"/>
+      <c r="AQ22" s="37"/>
+      <c r="AR22" s="37"/>
+      <c r="AS22" s="37"/>
+      <c r="AT22" s="37"/>
+      <c r="AU22" s="37"/>
+      <c r="AV22" s="37"/>
+      <c r="AW22" s="37"/>
+      <c r="AX22" s="37"/>
+      <c r="AY22" s="37"/>
+      <c r="AZ22" s="37"/>
+      <c r="BA22" s="37"/>
+      <c r="BB22" s="37"/>
+      <c r="BC22" s="37"/>
       <c r="BD22" s="1"/>
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
@@ -5337,61 +5337,61 @@
       <c r="GE22" s="1"/>
     </row>
     <row r="23" spans="1:187" ht="15" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="19"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="19"/>
-      <c r="AJ23" s="19"/>
-      <c r="AK23" s="19"/>
-      <c r="AL23" s="19"/>
-      <c r="AM23" s="19"/>
-      <c r="AN23" s="19"/>
-      <c r="AO23" s="19"/>
-      <c r="AP23" s="19"/>
-      <c r="AQ23" s="19"/>
-      <c r="AR23" s="19"/>
-      <c r="AS23" s="19"/>
-      <c r="AT23" s="19"/>
-      <c r="AU23" s="19"/>
-      <c r="AV23" s="19"/>
-      <c r="AW23" s="19"/>
-      <c r="AX23" s="19"/>
-      <c r="AY23" s="19"/>
-      <c r="AZ23" s="19"/>
-      <c r="BA23" s="19"/>
-      <c r="BB23" s="19"/>
-      <c r="BC23" s="19"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="37"/>
+      <c r="AK23" s="37"/>
+      <c r="AL23" s="37"/>
+      <c r="AM23" s="37"/>
+      <c r="AN23" s="37"/>
+      <c r="AO23" s="37"/>
+      <c r="AP23" s="37"/>
+      <c r="AQ23" s="37"/>
+      <c r="AR23" s="37"/>
+      <c r="AS23" s="37"/>
+      <c r="AT23" s="37"/>
+      <c r="AU23" s="37"/>
+      <c r="AV23" s="37"/>
+      <c r="AW23" s="37"/>
+      <c r="AX23" s="37"/>
+      <c r="AY23" s="37"/>
+      <c r="AZ23" s="37"/>
+      <c r="BA23" s="37"/>
+      <c r="BB23" s="37"/>
+      <c r="BC23" s="37"/>
       <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
       <c r="BF23" s="1"/>
@@ -5526,61 +5526,61 @@
       <c r="GE23" s="1"/>
     </row>
     <row r="24" spans="1:187" ht="15" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
-      <c r="AK24" s="28"/>
-      <c r="AL24" s="28"/>
-      <c r="AM24" s="28"/>
-      <c r="AN24" s="28"/>
-      <c r="AO24" s="28"/>
-      <c r="AP24" s="28"/>
-      <c r="AQ24" s="28"/>
-      <c r="AR24" s="28"/>
-      <c r="AS24" s="28"/>
-      <c r="AT24" s="28"/>
-      <c r="AU24" s="28"/>
-      <c r="AV24" s="28"/>
-      <c r="AW24" s="28"/>
-      <c r="AX24" s="28"/>
-      <c r="AY24" s="28"/>
-      <c r="AZ24" s="28"/>
-      <c r="BA24" s="28"/>
-      <c r="BB24" s="28"/>
-      <c r="BC24" s="28"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="42"/>
+      <c r="AH24" s="42"/>
+      <c r="AI24" s="42"/>
+      <c r="AJ24" s="42"/>
+      <c r="AK24" s="42"/>
+      <c r="AL24" s="42"/>
+      <c r="AM24" s="42"/>
+      <c r="AN24" s="42"/>
+      <c r="AO24" s="42"/>
+      <c r="AP24" s="42"/>
+      <c r="AQ24" s="42"/>
+      <c r="AR24" s="42"/>
+      <c r="AS24" s="42"/>
+      <c r="AT24" s="42"/>
+      <c r="AU24" s="42"/>
+      <c r="AV24" s="42"/>
+      <c r="AW24" s="42"/>
+      <c r="AX24" s="42"/>
+      <c r="AY24" s="42"/>
+      <c r="AZ24" s="42"/>
+      <c r="BA24" s="42"/>
+      <c r="BB24" s="42"/>
+      <c r="BC24" s="42"/>
       <c r="BD24" s="8"/>
       <c r="BE24" s="8"/>
       <c r="BF24" s="8"/>
@@ -5715,61 +5715,61 @@
       <c r="GE24" s="8"/>
     </row>
     <row r="25" spans="1:187" ht="15" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="23"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="23"/>
-      <c r="AJ25" s="23"/>
-      <c r="AK25" s="23"/>
-      <c r="AL25" s="23"/>
-      <c r="AM25" s="23"/>
-      <c r="AN25" s="23"/>
-      <c r="AO25" s="23"/>
-      <c r="AP25" s="23"/>
-      <c r="AQ25" s="23"/>
-      <c r="AR25" s="23"/>
-      <c r="AS25" s="23"/>
-      <c r="AT25" s="23"/>
-      <c r="AU25" s="23"/>
-      <c r="AV25" s="23"/>
-      <c r="AW25" s="23"/>
-      <c r="AX25" s="23"/>
-      <c r="AY25" s="23"/>
-      <c r="AZ25" s="23"/>
-      <c r="BA25" s="23"/>
-      <c r="BB25" s="23"/>
-      <c r="BC25" s="23"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="45"/>
+      <c r="AE25" s="46"/>
+      <c r="AF25" s="46"/>
+      <c r="AG25" s="46"/>
+      <c r="AH25" s="46"/>
+      <c r="AI25" s="46"/>
+      <c r="AJ25" s="46"/>
+      <c r="AK25" s="46"/>
+      <c r="AL25" s="46"/>
+      <c r="AM25" s="46"/>
+      <c r="AN25" s="46"/>
+      <c r="AO25" s="46"/>
+      <c r="AP25" s="46"/>
+      <c r="AQ25" s="46"/>
+      <c r="AR25" s="46"/>
+      <c r="AS25" s="46"/>
+      <c r="AT25" s="46"/>
+      <c r="AU25" s="46"/>
+      <c r="AV25" s="46"/>
+      <c r="AW25" s="46"/>
+      <c r="AX25" s="46"/>
+      <c r="AY25" s="46"/>
+      <c r="AZ25" s="46"/>
+      <c r="BA25" s="46"/>
+      <c r="BB25" s="46"/>
+      <c r="BC25" s="46"/>
       <c r="BD25" s="8"/>
       <c r="BE25" s="8"/>
       <c r="BF25" s="8"/>
@@ -5904,61 +5904,61 @@
       <c r="GE25" s="8"/>
     </row>
     <row r="26" spans="1:187" ht="15" customHeight="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="18"/>
-      <c r="AF26" s="19"/>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="19"/>
-      <c r="AI26" s="19"/>
-      <c r="AJ26" s="19"/>
-      <c r="AK26" s="19"/>
-      <c r="AL26" s="19"/>
-      <c r="AM26" s="19"/>
-      <c r="AN26" s="19"/>
-      <c r="AO26" s="19"/>
-      <c r="AP26" s="19"/>
-      <c r="AQ26" s="19"/>
-      <c r="AR26" s="19"/>
-      <c r="AS26" s="19"/>
-      <c r="AT26" s="19"/>
-      <c r="AU26" s="19"/>
-      <c r="AV26" s="19"/>
-      <c r="AW26" s="19"/>
-      <c r="AX26" s="19"/>
-      <c r="AY26" s="19"/>
-      <c r="AZ26" s="19"/>
-      <c r="BA26" s="19"/>
-      <c r="BB26" s="19"/>
-      <c r="BC26" s="19"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="37"/>
+      <c r="AK26" s="37"/>
+      <c r="AL26" s="37"/>
+      <c r="AM26" s="37"/>
+      <c r="AN26" s="37"/>
+      <c r="AO26" s="37"/>
+      <c r="AP26" s="37"/>
+      <c r="AQ26" s="37"/>
+      <c r="AR26" s="37"/>
+      <c r="AS26" s="37"/>
+      <c r="AT26" s="37"/>
+      <c r="AU26" s="37"/>
+      <c r="AV26" s="37"/>
+      <c r="AW26" s="37"/>
+      <c r="AX26" s="37"/>
+      <c r="AY26" s="37"/>
+      <c r="AZ26" s="37"/>
+      <c r="BA26" s="37"/>
+      <c r="BB26" s="37"/>
+      <c r="BC26" s="37"/>
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
       <c r="BF26" s="1"/>
@@ -6093,61 +6093,61 @@
       <c r="GE26" s="1"/>
     </row>
     <row r="27" spans="1:187" ht="15" customHeight="1">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="14"/>
-      <c r="AI27" s="14"/>
-      <c r="AJ27" s="14"/>
-      <c r="AK27" s="14"/>
-      <c r="AL27" s="14"/>
-      <c r="AM27" s="14"/>
-      <c r="AN27" s="14"/>
-      <c r="AO27" s="14"/>
-      <c r="AP27" s="14"/>
-      <c r="AQ27" s="14"/>
-      <c r="AR27" s="14"/>
-      <c r="AS27" s="14"/>
-      <c r="AT27" s="14"/>
-      <c r="AU27" s="14"/>
-      <c r="AV27" s="14"/>
-      <c r="AW27" s="14"/>
-      <c r="AX27" s="14"/>
-      <c r="AY27" s="14"/>
-      <c r="AZ27" s="14"/>
-      <c r="BA27" s="14"/>
-      <c r="BB27" s="14"/>
-      <c r="BC27" s="14"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
+      <c r="AJ27" s="17"/>
+      <c r="AK27" s="17"/>
+      <c r="AL27" s="17"/>
+      <c r="AM27" s="17"/>
+      <c r="AN27" s="17"/>
+      <c r="AO27" s="17"/>
+      <c r="AP27" s="17"/>
+      <c r="AQ27" s="17"/>
+      <c r="AR27" s="17"/>
+      <c r="AS27" s="17"/>
+      <c r="AT27" s="17"/>
+      <c r="AU27" s="17"/>
+      <c r="AV27" s="17"/>
+      <c r="AW27" s="17"/>
+      <c r="AX27" s="17"/>
+      <c r="AY27" s="17"/>
+      <c r="AZ27" s="17"/>
+      <c r="BA27" s="17"/>
+      <c r="BB27" s="17"/>
+      <c r="BC27" s="17"/>
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
       <c r="BF27" s="1"/>
@@ -6282,61 +6282,61 @@
       <c r="GE27" s="1"/>
     </row>
     <row r="28" spans="1:187" ht="15" customHeight="1">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="26"/>
-      <c r="AE28" s="15"/>
-      <c r="AF28" s="15"/>
-      <c r="AG28" s="15"/>
-      <c r="AH28" s="15"/>
-      <c r="AI28" s="15"/>
-      <c r="AJ28" s="15"/>
-      <c r="AK28" s="15"/>
-      <c r="AL28" s="15"/>
-      <c r="AM28" s="15"/>
-      <c r="AN28" s="15"/>
-      <c r="AO28" s="15"/>
-      <c r="AP28" s="15"/>
-      <c r="AQ28" s="15"/>
-      <c r="AR28" s="15"/>
-      <c r="AS28" s="15"/>
-      <c r="AT28" s="15"/>
-      <c r="AU28" s="15"/>
-      <c r="AV28" s="15"/>
-      <c r="AW28" s="15"/>
-      <c r="AX28" s="15"/>
-      <c r="AY28" s="15"/>
-      <c r="AZ28" s="15"/>
-      <c r="BA28" s="15"/>
-      <c r="BB28" s="15"/>
-      <c r="BC28" s="15"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="40"/>
+      <c r="AE28" s="44"/>
+      <c r="AF28" s="44"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
+      <c r="AM28" s="44"/>
+      <c r="AN28" s="44"/>
+      <c r="AO28" s="44"/>
+      <c r="AP28" s="44"/>
+      <c r="AQ28" s="44"/>
+      <c r="AR28" s="44"/>
+      <c r="AS28" s="44"/>
+      <c r="AT28" s="44"/>
+      <c r="AU28" s="44"/>
+      <c r="AV28" s="44"/>
+      <c r="AW28" s="44"/>
+      <c r="AX28" s="44"/>
+      <c r="AY28" s="44"/>
+      <c r="AZ28" s="44"/>
+      <c r="BA28" s="44"/>
+      <c r="BB28" s="44"/>
+      <c r="BC28" s="44"/>
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
       <c r="BF28" s="1"/>
@@ -6471,61 +6471,61 @@
       <c r="GE28" s="1"/>
     </row>
     <row r="29" spans="1:187" ht="15" customHeight="1">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="26"/>
-      <c r="AD29" s="26"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="15"/>
-      <c r="AG29" s="15"/>
-      <c r="AH29" s="15"/>
-      <c r="AI29" s="15"/>
-      <c r="AJ29" s="15"/>
-      <c r="AK29" s="15"/>
-      <c r="AL29" s="15"/>
-      <c r="AM29" s="15"/>
-      <c r="AN29" s="15"/>
-      <c r="AO29" s="15"/>
-      <c r="AP29" s="15"/>
-      <c r="AQ29" s="15"/>
-      <c r="AR29" s="15"/>
-      <c r="AS29" s="15"/>
-      <c r="AT29" s="15"/>
-      <c r="AU29" s="15"/>
-      <c r="AV29" s="15"/>
-      <c r="AW29" s="15"/>
-      <c r="AX29" s="15"/>
-      <c r="AY29" s="15"/>
-      <c r="AZ29" s="15"/>
-      <c r="BA29" s="15"/>
-      <c r="BB29" s="15"/>
-      <c r="BC29" s="15"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="40"/>
+      <c r="AC29" s="40"/>
+      <c r="AD29" s="40"/>
+      <c r="AE29" s="44"/>
+      <c r="AF29" s="44"/>
+      <c r="AG29" s="44"/>
+      <c r="AH29" s="44"/>
+      <c r="AI29" s="44"/>
+      <c r="AJ29" s="44"/>
+      <c r="AK29" s="44"/>
+      <c r="AL29" s="44"/>
+      <c r="AM29" s="44"/>
+      <c r="AN29" s="44"/>
+      <c r="AO29" s="44"/>
+      <c r="AP29" s="44"/>
+      <c r="AQ29" s="44"/>
+      <c r="AR29" s="44"/>
+      <c r="AS29" s="44"/>
+      <c r="AT29" s="44"/>
+      <c r="AU29" s="44"/>
+      <c r="AV29" s="44"/>
+      <c r="AW29" s="44"/>
+      <c r="AX29" s="44"/>
+      <c r="AY29" s="44"/>
+      <c r="AZ29" s="44"/>
+      <c r="BA29" s="44"/>
+      <c r="BB29" s="44"/>
+      <c r="BC29" s="44"/>
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
       <c r="BF29" s="1"/>
@@ -6660,61 +6660,61 @@
       <c r="GE29" s="1"/>
     </row>
     <row r="30" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
-      <c r="AI30" s="14"/>
-      <c r="AJ30" s="14"/>
-      <c r="AK30" s="14"/>
-      <c r="AL30" s="14"/>
-      <c r="AM30" s="14"/>
-      <c r="AN30" s="14"/>
-      <c r="AO30" s="14"/>
-      <c r="AP30" s="14"/>
-      <c r="AQ30" s="14"/>
-      <c r="AR30" s="14"/>
-      <c r="AS30" s="14"/>
-      <c r="AT30" s="14"/>
-      <c r="AU30" s="14"/>
-      <c r="AV30" s="14"/>
-      <c r="AW30" s="14"/>
-      <c r="AX30" s="14"/>
-      <c r="AY30" s="14"/>
-      <c r="AZ30" s="14"/>
-      <c r="BA30" s="14"/>
-      <c r="BB30" s="14"/>
-      <c r="BC30" s="14"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="17"/>
+      <c r="AI30" s="17"/>
+      <c r="AJ30" s="17"/>
+      <c r="AK30" s="17"/>
+      <c r="AL30" s="17"/>
+      <c r="AM30" s="17"/>
+      <c r="AN30" s="17"/>
+      <c r="AO30" s="17"/>
+      <c r="AP30" s="17"/>
+      <c r="AQ30" s="17"/>
+      <c r="AR30" s="17"/>
+      <c r="AS30" s="17"/>
+      <c r="AT30" s="17"/>
+      <c r="AU30" s="17"/>
+      <c r="AV30" s="17"/>
+      <c r="AW30" s="17"/>
+      <c r="AX30" s="17"/>
+      <c r="AY30" s="17"/>
+      <c r="AZ30" s="17"/>
+      <c r="BA30" s="17"/>
+      <c r="BB30" s="17"/>
+      <c r="BC30" s="17"/>
       <c r="BD30" s="9"/>
       <c r="BE30" s="9"/>
       <c r="BF30" s="9"/>
@@ -6849,61 +6849,61 @@
       <c r="GE30" s="9"/>
     </row>
     <row r="31" spans="1:187" ht="15" customHeight="1">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="26"/>
-      <c r="Z31" s="26"/>
-      <c r="AA31" s="26"/>
-      <c r="AB31" s="26"/>
-      <c r="AC31" s="26"/>
-      <c r="AD31" s="26"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="15"/>
-      <c r="AH31" s="15"/>
-      <c r="AI31" s="15"/>
-      <c r="AJ31" s="15"/>
-      <c r="AK31" s="15"/>
-      <c r="AL31" s="15"/>
-      <c r="AM31" s="15"/>
-      <c r="AN31" s="15"/>
-      <c r="AO31" s="15"/>
-      <c r="AP31" s="15"/>
-      <c r="AQ31" s="15"/>
-      <c r="AR31" s="15"/>
-      <c r="AS31" s="15"/>
-      <c r="AT31" s="15"/>
-      <c r="AU31" s="15"/>
-      <c r="AV31" s="15"/>
-      <c r="AW31" s="15"/>
-      <c r="AX31" s="15"/>
-      <c r="AY31" s="15"/>
-      <c r="AZ31" s="15"/>
-      <c r="BA31" s="15"/>
-      <c r="BB31" s="15"/>
-      <c r="BC31" s="15"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="40"/>
+      <c r="AC31" s="40"/>
+      <c r="AD31" s="40"/>
+      <c r="AE31" s="44"/>
+      <c r="AF31" s="44"/>
+      <c r="AG31" s="44"/>
+      <c r="AH31" s="44"/>
+      <c r="AI31" s="44"/>
+      <c r="AJ31" s="44"/>
+      <c r="AK31" s="44"/>
+      <c r="AL31" s="44"/>
+      <c r="AM31" s="44"/>
+      <c r="AN31" s="44"/>
+      <c r="AO31" s="44"/>
+      <c r="AP31" s="44"/>
+      <c r="AQ31" s="44"/>
+      <c r="AR31" s="44"/>
+      <c r="AS31" s="44"/>
+      <c r="AT31" s="44"/>
+      <c r="AU31" s="44"/>
+      <c r="AV31" s="44"/>
+      <c r="AW31" s="44"/>
+      <c r="AX31" s="44"/>
+      <c r="AY31" s="44"/>
+      <c r="AZ31" s="44"/>
+      <c r="BA31" s="44"/>
+      <c r="BB31" s="44"/>
+      <c r="BC31" s="44"/>
       <c r="BD31" s="1"/>
       <c r="BE31" s="1"/>
       <c r="BF31" s="1"/>
@@ -7228,16 +7228,111 @@
     </row>
   </sheetData>
   <mergeCells count="139">
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:P11"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="W11:AD11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="W12:AD12"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="W9:AD9"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:P30"/>
+    <mergeCell ref="Q30:V30"/>
+    <mergeCell ref="W30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="I17:P17"/>
+    <mergeCell ref="Q17:V17"/>
+    <mergeCell ref="W17:AD17"/>
+    <mergeCell ref="AE17:BC17"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="I19:P19"/>
+    <mergeCell ref="Q19:V19"/>
+    <mergeCell ref="W19:AD19"/>
+    <mergeCell ref="AE19:BC19"/>
+    <mergeCell ref="AE28:BC28"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="W22:AD22"/>
+    <mergeCell ref="AE22:BC22"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:P27"/>
+    <mergeCell ref="Q27:V27"/>
+    <mergeCell ref="W27:AD27"/>
+    <mergeCell ref="AE27:BC27"/>
+    <mergeCell ref="I21:P21"/>
+    <mergeCell ref="Q21:V21"/>
+    <mergeCell ref="W21:AD21"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:P14"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="W14:AD14"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I13:P13"/>
+    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="W13:AD13"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="Q16:V16"/>
+    <mergeCell ref="W16:AD16"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I15:P15"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="W15:AD15"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I22:P22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="I23:P23"/>
+    <mergeCell ref="Q23:V23"/>
+    <mergeCell ref="W23:AD23"/>
+    <mergeCell ref="AE23:BC23"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="I24:P24"/>
+    <mergeCell ref="Q24:V24"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="Q28:V28"/>
+    <mergeCell ref="W28:AD28"/>
+    <mergeCell ref="W24:AD24"/>
+    <mergeCell ref="AE24:BC24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:P29"/>
+    <mergeCell ref="Q29:V29"/>
+    <mergeCell ref="W29:AD29"/>
+    <mergeCell ref="AE29:BC29"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:P31"/>
+    <mergeCell ref="Q31:V31"/>
+    <mergeCell ref="W31:AD31"/>
+    <mergeCell ref="Q26:V26"/>
+    <mergeCell ref="W26:AD26"/>
+    <mergeCell ref="I26:P26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="I25:P25"/>
+    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="W25:AD25"/>
+    <mergeCell ref="O1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AJ1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="AE7:BC8"/>
+    <mergeCell ref="AE21:BC21"/>
+    <mergeCell ref="I20:P20"/>
+    <mergeCell ref="Q20:V20"/>
+    <mergeCell ref="W20:AD20"/>
+    <mergeCell ref="I18:P18"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="W18:AD18"/>
+    <mergeCell ref="AE20:BC20"/>
+    <mergeCell ref="AE18:BC18"/>
+    <mergeCell ref="AE13:BC13"/>
+    <mergeCell ref="AE14:BC14"/>
+    <mergeCell ref="AE15:BC15"/>
+    <mergeCell ref="AE16:BC16"/>
+    <mergeCell ref="I12:P12"/>
+    <mergeCell ref="AE11:BC11"/>
+    <mergeCell ref="AE12:BC12"/>
+    <mergeCell ref="Q12:V12"/>
+    <mergeCell ref="A21:H21"/>
     <mergeCell ref="AE9:BC9"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:P10"/>
@@ -7262,111 +7357,16 @@
     <mergeCell ref="AN2:AT2"/>
     <mergeCell ref="AU2:AW2"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AJ1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="AE7:BC8"/>
-    <mergeCell ref="AE21:BC21"/>
-    <mergeCell ref="I20:P20"/>
-    <mergeCell ref="Q20:V20"/>
-    <mergeCell ref="W20:AD20"/>
-    <mergeCell ref="I18:P18"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="W18:AD18"/>
-    <mergeCell ref="AE20:BC20"/>
-    <mergeCell ref="AE18:BC18"/>
-    <mergeCell ref="AE13:BC13"/>
-    <mergeCell ref="AE14:BC14"/>
-    <mergeCell ref="AE15:BC15"/>
-    <mergeCell ref="AE16:BC16"/>
-    <mergeCell ref="I12:P12"/>
-    <mergeCell ref="AE11:BC11"/>
-    <mergeCell ref="AE12:BC12"/>
-    <mergeCell ref="Q12:V12"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I28:P28"/>
-    <mergeCell ref="Q28:V28"/>
-    <mergeCell ref="W28:AD28"/>
-    <mergeCell ref="W24:AD24"/>
-    <mergeCell ref="AE24:BC24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:P29"/>
-    <mergeCell ref="Q29:V29"/>
-    <mergeCell ref="W29:AD29"/>
-    <mergeCell ref="AE29:BC29"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:P31"/>
-    <mergeCell ref="Q31:V31"/>
-    <mergeCell ref="W31:AD31"/>
-    <mergeCell ref="Q26:V26"/>
-    <mergeCell ref="W26:AD26"/>
-    <mergeCell ref="I26:P26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="I25:P25"/>
-    <mergeCell ref="Q25:V25"/>
-    <mergeCell ref="W25:AD25"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="I22:P22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="I23:P23"/>
-    <mergeCell ref="Q23:V23"/>
-    <mergeCell ref="W23:AD23"/>
-    <mergeCell ref="AE23:BC23"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="I24:P24"/>
-    <mergeCell ref="Q24:V24"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="I21:P21"/>
-    <mergeCell ref="Q21:V21"/>
-    <mergeCell ref="W21:AD21"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:P14"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="W14:AD14"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I13:P13"/>
-    <mergeCell ref="Q13:V13"/>
-    <mergeCell ref="W13:AD13"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="Q16:V16"/>
-    <mergeCell ref="W16:AD16"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I15:P15"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="W15:AD15"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:P30"/>
-    <mergeCell ref="Q30:V30"/>
-    <mergeCell ref="W30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="I17:P17"/>
-    <mergeCell ref="Q17:V17"/>
-    <mergeCell ref="W17:AD17"/>
-    <mergeCell ref="AE17:BC17"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="I19:P19"/>
-    <mergeCell ref="Q19:V19"/>
-    <mergeCell ref="W19:AD19"/>
-    <mergeCell ref="AE19:BC19"/>
-    <mergeCell ref="AE28:BC28"/>
-    <mergeCell ref="Q22:V22"/>
-    <mergeCell ref="W22:AD22"/>
-    <mergeCell ref="AE22:BC22"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I27:P27"/>
-    <mergeCell ref="Q27:V27"/>
-    <mergeCell ref="W27:AD27"/>
-    <mergeCell ref="AE27:BC27"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:P11"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="W11:AD11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="W12:AD12"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="W9:AD9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -7446,9 +7446,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7584,19 +7587,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6750BA14-EF93-4A19-AEC6-7431BDBB93BF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D8A1FDC-951E-4F8A-8B1E-600169D502EB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7620,9 +7619,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D8A1FDC-951E-4F8A-8B1E-600169D502EB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6750BA14-EF93-4A19-AEC6-7431BDBB93BF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>